--- a/public/template/template-provinsi.xlsx
+++ b/public/template/template-provinsi.xlsx
@@ -20,9 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">nama_provinsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumatera Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumatera Barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jambi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumatera Selatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengkulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepulauan Riau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawa Barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawa Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daerah Istimewa Yogyakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawa Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKI Jakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalimantan Barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalimantan Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalimantan Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulawesi Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulawesi Tenggara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorontalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulawesi Barat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nusa Tenggara Barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nusa Tenggara Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maluku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maluku Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua Barat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua Selatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua Pegunungan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua Barat Daya</t>
   </si>
 </sst>
 </file>
@@ -113,13 +221,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -139,24 +251,199 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
